--- a/medicine/Enfance/Fantômette_contre_Charlemagne/Fantômette_contre_Charlemagne.xlsx
+++ b/medicine/Enfance/Fantômette_contre_Charlemagne/Fantômette_contre_Charlemagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_Charlemagne</t>
+          <t>Fantômette_contre_Charlemagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette contre Charlemagne est le 25e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_Charlemagne</t>
+          <t>Fantômette_contre_Charlemagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette contre Charlemagne a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_Charlemagne</t>
+          <t>Fantômette_contre_Charlemagne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Françoise Dupont / Fantômette : héroïne du roman
 Ficelle : amie de Françoise et de Boulotte
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_Charlemagne</t>
+          <t>Fantômette_contre_Charlemagne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1974 en langue française.
 Mise en place de l'intrigue (chapitres 1 et 2)
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_contre_Charlemagne</t>
+          <t>Fantômette_contre_Charlemagne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ficelle et Boulotte n'interviennent qu'en début et en fin de l'histoire.
 Le récit peut rappeler par certains sujets le scénario de Fantômette et le Trésor du pharaon (1970).
